--- a/inscription des etudiants.xlsx
+++ b/inscription des etudiants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC728CD2-57D8-47D3-90AD-AC40A45F7506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944C355-2AB3-4CCC-93A5-B5600779FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{82935FD5-7B26-4E02-ADFD-EC3DE75D8BCB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>nom</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>https://placehold.co/150x150</t>
   </si>
 </sst>
 </file>
@@ -137,9 +146,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68E834D9-281A-46D8-A87E-4CAC37E94D3F}" name="Tableau2" displayName="Tableau2" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{68E834D9-281A-46D8-A87E-4CAC37E94D3F}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68E834D9-281A-46D8-A87E-4CAC37E94D3F}" name="Tableau2" displayName="Tableau2" ref="A1:J2" totalsRowShown="0">
+  <autoFilter ref="A1:J2" xr:uid="{68E834D9-281A-46D8-A87E-4CAC37E94D3F}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{155CA320-98B4-4223-B169-A40AF1A296B4}" name="nom"/>
     <tableColumn id="2" xr3:uid="{3CBA24FA-6D3E-4754-8830-D6B978E8E448}" name="prenom"/>
     <tableColumn id="3" xr3:uid="{FC3D2327-E7F1-4D04-BD93-EE2EF7D7DEF8}" name="email" dataCellStyle="Lien hypertexte"/>
@@ -148,6 +157,8 @@
     <tableColumn id="6" xr3:uid="{52522A21-8223-4EA0-986F-59A215E21BD6}" name="lieu_naissance"/>
     <tableColumn id="7" xr3:uid="{BFEECD9C-7007-400C-AAC6-03DA55B1340A}" name="filiere"/>
     <tableColumn id="8" xr3:uid="{43CB159C-0C76-4DA6-B840-BFA137D3589F}" name="niveau"/>
+    <tableColumn id="9" xr3:uid="{CF8F0AB4-1B94-41C6-9F3B-4444EA97BF9A}" name="telephone"/>
+    <tableColumn id="10" xr3:uid="{DD7917A9-E964-4A60-B11B-BD6011655F9F}" name="photo" dataCellStyle="Lien hypertexte"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -450,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D29C59-D34E-41DD-80E7-623219170834}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +473,7 @@
     <col min="6" max="6" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +498,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -512,15 +529,22 @@
       </c>
       <c r="H2" t="s">
         <v>14</v>
+      </c>
+      <c r="I2">
+        <v>771234567</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{87970E19-51FB-455C-A699-B90B515673CB}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{AF7B0F40-B390-40D0-B232-BD23E5054AE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/inscription des etudiants.xlsx
+++ b/inscription des etudiants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944C355-2AB3-4CCC-93A5-B5600779FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF9C3E-D2E6-46F9-8E1B-329E3E263C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{82935FD5-7B26-4E02-ADFD-EC3DE75D8BCB}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>NDIAYE</t>
   </si>
   <si>
-    <t>dn10@gmail.com</t>
-  </si>
-  <si>
     <t>passer123</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>https://placehold.co/150x150</t>
+  </si>
+  <si>
+    <t>papaibrahima98@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -513,28 +513,28 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>39000</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2">
-        <v>771234567</v>
+        <v>771251567</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
